--- a/imhr/dist/roi/output/data/AM_223_bounds.xlsx
+++ b/imhr/dist/roi/output/data/AM_223_bounds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>x0</t>
   </si>
@@ -46,12 +46,6 @@
     <t>feature</t>
   </si>
   <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
     <t>AM_223</t>
   </si>
   <si>
@@ -107,33 +101,6 @@
   </si>
   <si>
     <t>rightear</t>
-  </si>
-  <si>
-    <t>center</t>
-  </si>
-  <si>
-    <t>AM_223roi1center</t>
-  </si>
-  <si>
-    <t>AM_223roi2center</t>
-  </si>
-  <si>
-    <t>AM_223roi3center</t>
-  </si>
-  <si>
-    <t>AM_223roi4center</t>
-  </si>
-  <si>
-    <t>AM_223roi5center</t>
-  </si>
-  <si>
-    <t>AM_223roi6center</t>
-  </si>
-  <si>
-    <t>AM_223roi7center</t>
-  </si>
-  <si>
-    <t>AM_223roi8center</t>
   </si>
 </sst>
 </file>
@@ -491,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,14 +495,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>944</v>
       </c>
@@ -549,31 +510,25 @@
         <v>406</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1132</v>
       </c>
@@ -587,31 +542,25 @@
         <v>405</v>
       </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>899</v>
       </c>
@@ -625,31 +574,25 @@
         <v>553</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>1038</v>
       </c>
@@ -663,31 +606,25 @@
         <v>670</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>1053</v>
       </c>
@@ -701,31 +638,25 @@
         <v>776</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>1150</v>
       </c>
@@ -739,31 +670,25 @@
         <v>275</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>695</v>
       </c>
@@ -777,31 +702,25 @@
         <v>484</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>1229</v>
       </c>
@@ -815,28 +734,22 @@
         <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/imhr/dist/roi/output/data/AM_223_bounds.xlsx
+++ b/imhr/dist/roi/output/data/AM_223_bounds.xlsx
@@ -504,16 +504,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>899</v>
+        <v>1023</v>
       </c>
       <c r="B4" t="n">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="C4" t="n">
-        <v>1037</v>
+        <v>906</v>
       </c>
       <c r="D4" t="n">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -672,16 +672,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="B8" t="n">
         <v>641</v>
       </c>
       <c r="C8" t="n">
-        <v>779</v>
+        <v>695</v>
       </c>
       <c r="D8" t="n">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="B9" t="n">
         <v>638</v>
